--- a/REGULAR/ADMIN/FERMA, JOSEFA.xlsx
+++ b/REGULAR/ADMIN/FERMA, JOSEFA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="494">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1477,6 +1477,45 @@
   </si>
   <si>
     <t>10/3-5/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-3-25)</t>
+  </si>
+  <si>
+    <t>UT(0-6-25)</t>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-1-43)</t>
+  </si>
+  <si>
+    <t>UT(0-2-6)</t>
+  </si>
+  <si>
+    <t>UT(0-6-9)</t>
+  </si>
+  <si>
+    <t>UT(0-2-35)</t>
+  </si>
+  <si>
+    <t>UT(0-6-43)</t>
+  </si>
+  <si>
+    <t>UT(0-4-7)</t>
+  </si>
+  <si>
+    <t>2/11/2023 (10)</t>
+  </si>
+  <si>
+    <t>2/1,21/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-8)</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2416,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2459,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2523,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2583,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2649,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2712,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2810,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2869,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2934,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2977,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3052,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3238,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3304,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3362,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,7 +3428,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3484,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,7 +3559,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3563,7 +3602,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3668,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3724,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,7 +3822,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3885,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,7 +3951,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K582" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K591" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4285,12 +4324,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K582"/>
+  <dimension ref="A2:K591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A563" activePane="bottomLeft"/>
       <selection activeCell="E6" sqref="E6"/>
-      <selection pane="bottomLeft" activeCell="K577" sqref="K577"/>
+      <selection pane="bottomLeft" activeCell="E578" sqref="E578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,7 +4490,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.326999999999941</v>
+        <v>12.406999999999982</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4461,7 +4500,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>175.25</v>
+        <v>176.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17058,11 +17097,15 @@
       <c r="A566" s="40">
         <v>44927</v>
       </c>
-      <c r="B566" s="20"/>
+      <c r="B566" s="20" t="s">
+        <v>493</v>
+      </c>
       <c r="C566" s="13">
         <v>1.25</v>
       </c>
-      <c r="D566" s="39"/>
+      <c r="D566" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13">
@@ -17096,39 +17139,39 @@
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="48">
-        <v>44968</v>
+      <c r="K567" s="48" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D568" s="39"/>
+        <v>476</v>
+      </c>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39">
+        <v>2</v>
+      </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20" t="s">
-        <v>464</v>
+      <c r="K568" s="48" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B569" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B569" s="20" t="s">
+        <v>463</v>
+      </c>
       <c r="C569" s="13">
         <v>1.25</v>
       </c>
@@ -17142,37 +17185,33 @@
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="20" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C570" s="13">
-        <v>1.25</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C570" s="13"/>
       <c r="D570" s="39">
-        <v>1</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="48">
-        <v>45076</v>
-      </c>
+      <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -17192,13 +17231,17 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B572" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B572" s="20" t="s">
+        <v>462</v>
+      </c>
       <c r="C572" s="13">
         <v>1.25</v>
       </c>
-      <c r="D572" s="39"/>
+      <c r="D572" s="39">
+        <v>1</v>
+      </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
       <c r="G572" s="13">
@@ -17208,60 +17251,64 @@
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="20"/>
+      <c r="K572" s="48">
+        <v>45076</v>
+      </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B573" s="20"/>
-      <c r="C573" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D573" s="39"/>
+      <c r="A573" s="40"/>
+      <c r="B573" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39">
+        <v>1</v>
+      </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20"/>
+      <c r="K573" s="48">
+        <v>45077</v>
+      </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B574" s="20"/>
-      <c r="C574" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D574" s="39"/>
+      <c r="A574" s="40"/>
+      <c r="B574" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39">
+        <v>0.84</v>
+      </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
+      <c r="K574" s="48"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B575" s="20" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C575" s="13">
         <v>1.25</v>
       </c>
       <c r="D575" s="39">
-        <v>3</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
@@ -17272,19 +17319,21 @@
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20" t="s">
-        <v>480</v>
-      </c>
+      <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B576" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B576" s="20" t="s">
+        <v>487</v>
+      </c>
       <c r="C576" s="13">
         <v>1.25</v>
       </c>
-      <c r="D576" s="39"/>
+      <c r="D576" s="39">
+        <v>0.76900000000000002</v>
+      </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
       <c r="G576" s="13">
@@ -17298,40 +17347,46 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45261</v>
+        <v>45139</v>
       </c>
       <c r="B577" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C577" s="13"/>
+        <v>486</v>
+      </c>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="39">
-        <v>1</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="48">
-        <v>45266</v>
-      </c>
+      <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B578" s="20"/>
-      <c r="C578" s="13"/>
-      <c r="D578" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B578" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D578" s="39">
+        <v>1.2150000000000001</v>
+      </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
@@ -17340,29 +17395,39 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B579" s="20"/>
-      <c r="C579" s="13"/>
-      <c r="D579" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B579" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D579" s="39">
+        <v>3</v>
+      </c>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="20" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B580" s="20"/>
+      <c r="A580" s="40"/>
+      <c r="B580" s="20" t="s">
+        <v>470</v>
+      </c>
       <c r="C580" s="13"/>
-      <c r="D580" s="39"/>
+      <c r="D580" s="39">
+        <v>1</v>
+      </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
       <c r="G580" s="13" t="str">
@@ -17372,15 +17437,19 @@
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="48">
+        <v>45230</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B581" s="20"/>
+      <c r="A581" s="40"/>
+      <c r="B581" s="20" t="s">
+        <v>484</v>
+      </c>
       <c r="C581" s="13"/>
-      <c r="D581" s="39"/>
+      <c r="D581" s="39">
+        <v>1</v>
+      </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
       <c r="G581" s="13" t="str">
@@ -17390,25 +17459,207 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="48"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B582" s="20"/>
-      <c r="C582" s="13"/>
-      <c r="D582" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B582" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D582" s="39">
+        <v>0.80200000000000005</v>
+      </c>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B583" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D583" s="39">
+        <v>1</v>
+      </c>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="48">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40"/>
+      <c r="B584" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39">
+        <v>1</v>
+      </c>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="48">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40"/>
+      <c r="B585" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="48"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="48"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="39"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B590" s="20"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="39"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="20"/>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="39"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B591" s="20"/>
+      <c r="C591" s="13"/>
+      <c r="D591" s="39"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H591" s="39"/>
+      <c r="I591" s="9"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17518,18 +17769,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.50800000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -17578,7 +17825,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>197.57699999999994</v>
+        <v>188.90699999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
